--- a/fogos3/fogos3.xlsx
+++ b/fogos3/fogos3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\IncendioFlorestal\fogos3\fogos3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\IncendioFlorestal\fogos3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDFCE8A-FA1F-416C-A0A0-81640061124F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3A4C73-57FF-4E95-9242-0667BC0414DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8985" windowHeight="6795" xr2:uid="{63F9166B-6F17-4C5E-B7E0-12EB27E8F6D8}"/>
   </bookViews>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
         <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
       <c r="F22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
         <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>

--- a/fogos3/fogos3.xlsx
+++ b/fogos3/fogos3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\IncendioFlorestal\fogos3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3A4C73-57FF-4E95-9242-0667BC0414DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A55BD13-9708-4FCC-9A57-678A5032A1E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8985" windowHeight="6795" xr2:uid="{63F9166B-6F17-4C5E-B7E0-12EB27E8F6D8}"/>
   </bookViews>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
         <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
